--- a/biology/Zoologie/Amolops_archotaphus/Amolops_archotaphus.xlsx
+++ b/biology/Zoologie/Amolops_archotaphus/Amolops_archotaphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops archotaphus est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops archotaphus est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Chiang Mai en Thaïlande[1]. Sa présence est incertaine en Birmanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Chiang Mai en Thaïlande. Sa présence est incertaine en Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique archotaphus vient du grec archon, l'archonte, et de taphus, la tombe, en référence au mont Doi Inthanon, où les cendres d'Intha Witchayanon, le dernier roi de Chiang Mai, ont été enterrées[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique archotaphus vient du grec archon, l'archonte, et de taphus, la tombe, en référence au mont Doi Inthanon, où les cendres d'Intha Witchayanon, le dernier roi de Chiang Mai, ont été enterrées.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Inger &amp; Chan-ard, 1997 : A new species of ranid frog from Thailand, with comments on Rana livida (Blyth). Natural History Bulletin of the Siam Society, vol. 45, p. 65-70 (texte intégral).</t>
         </is>
